--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Other\NonameProject\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F54D6EB-CDCF-4185-B353-82F4AE9859CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE655B17-F638-4D72-8D26-4040C15F2932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="5715" windowWidth="26580" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5256" yWindow="5712" windowWidth="26580" windowHeight="15888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -77,13 +77,21 @@
   </si>
   <si>
     <t>Map</t>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChatServer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +118,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -138,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,6 +167,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,23 +475,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H10"/>
+  <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -493,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -513,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -533,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -553,7 +571,7 @@
         <v>50002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -573,7 +591,7 @@
         <v>50003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -593,7 +611,7 @@
         <v>50004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -613,7 +631,7 @@
         <v>50005</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -631,6 +649,26 @@
       </c>
       <c r="H10" s="5">
         <v>50006</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50007</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Other\NonameProject\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE655B17-F638-4D72-8D26-4040C15F2932}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC7045-EC20-4F2E-9B83-55FFE93D650E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5256" yWindow="5712" windowWidth="26580" windowHeight="15888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,11 +79,11 @@
     <t>Map</t>
   </si>
   <si>
-    <t>Map</t>
+    <t>ChatServer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ChatServer</t>
+    <t>Chat</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
@@ -571,7 +571,7 @@
         <v>50002</v>
       </c>
     </row>
-    <row r="7" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -591,7 +591,7 @@
         <v>50003</v>
       </c>
     </row>
-    <row r="8" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -611,7 +611,7 @@
         <v>50004</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>4</v>
       </c>
@@ -631,7 +631,7 @@
         <v>50005</v>
       </c>
     </row>
-    <row r="10" spans="3:8" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -662,10 +662,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="3">
         <v>50007</v>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Other\NonameProject\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BC7045-EC20-4F2E-9B83-55FFE93D650E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2421B65F-83EE-41FC-B278-42F32B437106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="5712" windowWidth="26580" windowHeight="15888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -77,10 +77,6 @@
   </si>
   <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>ChatServer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Chat</t>
@@ -478,16 +474,16 @@
   <dimension ref="C3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -551,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -656,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>19</v>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2421B65F-83EE-41FC-B278-42F32B437106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEFB660-94BB-4454-A576-EAA14D1762B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3510" windowWidth="25500" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
   </si>
   <si>
     <t>Location</t>
@@ -471,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H11"/>
+  <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -598,13 +595,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="5">
-        <v>50004</v>
+        <v>50005</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -624,46 +621,26 @@
         <v>17</v>
       </c>
       <c r="H9" s="5">
-        <v>50005</v>
+        <v>50006</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="5">
-        <v>50006</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="H10" s="3">
         <v>50007</v>
       </c>
     </row>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEFB660-94BB-4454-A576-EAA14D1762B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22048C0B-D4C6-4F80-8330-4BAEF2D1CC92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3510" windowWidth="25500" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26370" yWindow="1620" windowWidth="26535" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -471,7 +471,7 @@
   <dimension ref="C3:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -561,7 +561,7 @@
         <v>13</v>
       </c>
       <c r="H6" s="5">
-        <v>50002</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="5">
-        <v>50003</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -601,7 +601,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="5">
-        <v>50005</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>17</v>
       </c>
       <c r="H9" s="5">
-        <v>50006</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -640,8 +640,8 @@
       <c r="G10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="3">
-        <v>50007</v>
+      <c r="H10" s="5">
+        <v>7004</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartSceneConfig.xlsx
+++ b/Excel/StartSceneConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22048C0B-D4C6-4F80-8330-4BAEF2D1CC92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4556AF2-1E87-49DB-8762-C94F649455D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26370" yWindow="1620" windowWidth="26535" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1635" windowWidth="26535" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H10"/>
+  <dimension ref="C3:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -644,6 +648,106 @@
         <v>7004</v>
       </c>
     </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="3">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5">
+        <v>7003</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
